--- a/dcomtestcasegeneration/Template/Sheet1.xlsx
+++ b/dcomtestcasegeneration/Template/Sheet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CB39F4-F057-46BC-9303-37B9D1A6AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02CD5DE-E29A-449B-A6AA-F3BBBEFE8B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="1920" windowWidth="17475" windowHeight="13185" xr2:uid="{FEDE2B8F-29A3-4236-8E3E-91E6F4249945}"/>
+    <workbookView xWindow="5748" yWindow="960" windowWidth="11280" windowHeight="10356" xr2:uid="{B494ABA7-E03F-4DAB-9EA4-0F121BFCA65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -379,12 +378,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A63422-8224-4215-BF28-198246CC5EB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241AF767-C564-436B-9893-87A832BA240C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
